--- a/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/data/ui.menu.xlsx
+++ b/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/data/ui.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB4D3F2-453F-D948-B668-D06AE7B6846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123CA70-22E5-4647-BBC4-75DEEE1E877B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="51460" yWindow="-3020" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -103,16 +106,6 @@
     <t>metadata</t>
   </si>
   <si>
-    <t>SIDE-MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</t>
-  </si>
-  <si>
-    <t>0dc402f6-5310-45a5-816f-a23c19a7f135</t>
-  </si>
-  <si>
     <t>zero.develop.form</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,13 +120,237 @@
   <si>
     <t>/epic/form</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV-MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPAND</t>
+  </si>
+  <si>
+    <t>模板页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security-scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互式组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置化组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deployment-unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单设计器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant-design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38a3b05f-eb40-44f4-a069-31f838d3f513</t>
+  </si>
+  <si>
+    <t>c1d71c63-c06a-430f-8c91-208bc116ec43</t>
+  </si>
+  <si>
+    <t>d2193e8a-0b49-4ffd-ba40-9f64938c4b01</t>
+  </si>
+  <si>
+    <t>d3955522-7e2c-4615-a8ac-56c39ef3394c</t>
+  </si>
+  <si>
+    <t>10f831fe-1501-4f5e-961a-e50be2987a5e</t>
+  </si>
+  <si>
+    <t>e17311df-0ddc-4e3d-a424-26aa39fb0ce4</t>
+  </si>
+  <si>
+    <t>782c10b0-30fe-4c7c-982d-b13a1d5cdeb2</t>
+  </si>
+  <si>
+    <t>e25907f4-3c64-49eb-ae55-892ca1d75419</t>
+  </si>
+  <si>
+    <t>5a2c40de-33bc-4720-9028-23362bc36877</t>
+  </si>
+  <si>
+    <t>6550cb94-7fb6-4904-8ed2-ea07a4dd35ec</t>
+  </si>
+  <si>
+    <t>8f419026-20e3-49a7-8a95-0fd73bc8652d</t>
+  </si>
+  <si>
+    <t>6c84a170-696b-47cd-9ef0-c737e4e50724</t>
+  </si>
+  <si>
+    <t>操作按钮设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play-circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f856b517-096c-49e1-b9c4-0fbc86b7570c</t>
+  </si>
+  <si>
+    <t>表格管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0e957340-d5b7-4dd5-9eaf-5865c09c30eb</t>
+  </si>
+  <si>
+    <t>/web/pg-container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/web/pg-components</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/web/ui-form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/web/ui-extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/web/ui-configure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/web/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/web/form-setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/web/form-designer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/web/action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.web</t>
+  </si>
+  <si>
+    <t>develop.web.pg</t>
+  </si>
+  <si>
+    <t>develop.web.pg-container</t>
+  </si>
+  <si>
+    <t>develop.web.pg-components</t>
+  </si>
+  <si>
+    <t>develop.web.ui</t>
+  </si>
+  <si>
+    <t>develop.web.ui-form</t>
+  </si>
+  <si>
+    <t>develop.web.ui-extension</t>
+  </si>
+  <si>
+    <t>develop.web.ui-configure</t>
+  </si>
+  <si>
+    <t>develop.web.list</t>
+  </si>
+  <si>
+    <t>develop.web.form</t>
+  </si>
+  <si>
+    <t>develop.web.form-setting</t>
+  </si>
+  <si>
+    <t>develop.web.form-designer</t>
+  </si>
+  <si>
+    <t>develop.web.action</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +399,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -259,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,6 +524,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -647,16 +879,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
@@ -724,33 +956,421 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>A$6</f>
+        <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9">
-        <v>1020</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="16">
         <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="D6" s="6">
+        <v>40000</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="I6" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>A$6</f>
+        <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f>A$7</f>
+        <v>d2193e8a-0b49-4ffd-ba40-9f64938c4b01</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>A$7</f>
+        <v>d2193e8a-0b49-4ffd-ba40-9f64938c4b01</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>A$6</f>
+        <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>A$10</f>
+        <v>e17311df-0ddc-4e3d-a424-26aa39fb0ce4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f t="shared" ref="B12:B13" si="0">A$10</f>
+        <v>e17311df-0ddc-4e3d-a424-26aa39fb0ce4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>e17311df-0ddc-4e3d-a424-26aa39fb0ce4</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f t="shared" ref="B14:B18" si="1">A$6</f>
+        <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>A$15</f>
+        <v>8f419026-20e3-49a7-8a95-0fd73bc8652d</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E16" s="19">
+        <v>3</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f>A$15</f>
+        <v>8f419026-20e3-49a7-8a95-0fd73bc8652d</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E17" s="19">
+        <v>3</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1025</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/data/ui.menu.xlsx
+++ b/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/data/ui.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123CA70-22E5-4647-BBC4-75DEEE1E877B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F6DC23-50A2-A342-BEAB-AF0C205EBE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51460" yWindow="-3020" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -106,14 +106,6 @@
     <t>metadata</t>
   </si>
   <si>
-    <t>zero.develop.form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>form</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,6 +336,14 @@
   </si>
   <si>
     <t>develop.web.action</t>
+  </si>
+  <si>
+    <t>「旧」表单设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old.zero.develop.form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -956,14 +956,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>A$6</f>
         <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="9">
         <v>2000</v>
@@ -972,26 +972,26 @@
         <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="I5" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6">
         <v>40000</v>
@@ -1000,28 +1000,28 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$6</f>
         <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9">
         <v>1005</v>
@@ -1030,28 +1030,28 @@
         <v>2</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>A$7</f>
         <v>d2193e8a-0b49-4ffd-ba40-9f64938c4b01</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9">
         <v>1005</v>
@@ -1060,28 +1060,28 @@
         <v>3</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>A$7</f>
         <v>d2193e8a-0b49-4ffd-ba40-9f64938c4b01</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="9">
         <v>1010</v>
@@ -1090,28 +1090,28 @@
         <v>3</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>A$6</f>
         <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9">
         <v>1010</v>
@@ -1120,28 +1120,28 @@
         <v>2</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$10</f>
         <v>e17311df-0ddc-4e3d-a424-26aa39fb0ce4</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9">
         <v>1005</v>
@@ -1150,28 +1150,28 @@
         <v>3</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" ref="B12:B13" si="0">A$10</f>
         <v>e17311df-0ddc-4e3d-a424-26aa39fb0ce4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="9">
         <v>1010</v>
@@ -1180,28 +1180,28 @@
         <v>3</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="I12" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>e17311df-0ddc-4e3d-a424-26aa39fb0ce4</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="9">
         <v>1015</v>
@@ -1210,28 +1210,28 @@
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" ref="B14:B18" si="1">A$6</f>
         <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="9">
         <v>1015</v>
@@ -1240,28 +1240,28 @@
         <v>2</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="9">
         <v>1020</v>
@@ -1270,28 +1270,28 @@
         <v>2</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="8" t="str">
         <f>A$15</f>
         <v>8f419026-20e3-49a7-8a95-0fd73bc8652d</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="9">
         <v>1005</v>
@@ -1300,28 +1300,28 @@
         <v>3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="8" t="str">
         <f>A$15</f>
         <v>8f419026-20e3-49a7-8a95-0fd73bc8652d</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="9">
         <v>1010</v>
@@ -1330,28 +1330,28 @@
         <v>3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>c1d71c63-c06a-430f-8c91-208bc116ec43</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="9">
         <v>1025</v>
@@ -1360,16 +1360,16 @@
         <v>2</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
